--- a/biology/Histoire de la zoologie et de la botanique/Charles_Gald_Sibley/Charles_Gald_Sibley.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Gald_Sibley/Charles_Gald_Sibley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Gald Sibley, né le 7 août 1917 à Fresno en Californie, mort le 12 avril 1998 à Santa Rosa en Californie, est un biologiste moléculaire et ornithologue américain. Son œuvre a eu une immense influence sur la classification scientifique des oiseaux, modifiant radicalement notre vision et notre compréhension de l’évolution des néornithes (oiseaux modernes) dont les grandes lignes sont présentées dans l'article Taxinomie Sibley-Ahlquist.
 </t>
@@ -511,7 +523,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès l’âge de cinq ans, Charles Gald Sibley s’intéresse aux oiseaux et à sept ans, il lit des ouvrages spécialisés (Seton et Burroughs) et sait qu’il sera naturaliste. Son choix est encouragé par un professeur au lycée et par un ami plus âgé, passionné d’ornithologie.
 Lors de ses études à l'université de Californie, à Berkeley, il fait ses premiers travaux de terrain au Mexique (1939-1941). Pendant la Seconde Guerre mondiale, il devient officier dans les communications de l’U.S. Navy, passant 19 mois aux Îles Salomon et aux Philippines, où il collecte des centaines de spécimens avant de retourner aux États-Unis, pour terminer ses études.
@@ -543,7 +557,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1948-1949 : professeur de zoologie, conservateur des oiseaux, université du Kansas.
 1949-1953 : professeur assistant de zoologie, San Jose State College, Californie.
@@ -580,7 +596,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1939-1942 : études et recherches sur les oiseaux fossiles (paléontologie).
 1941-1957 : études des variations géographiques, des spéciations, et des hybridations interspécifiques dans les populations d’oiseaux sauvages.
@@ -617,7 +635,9 @@
           <t>Devise</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">« Perfection is for the future, but it is our duty to strive for it in the present. » : « La perfection est pour le futur, mais notre tâche est de l’atteindre dès à présent. »
 </t>
@@ -648,7 +668,9 @@
           <t>Publications posthumes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>van Tuinen M., Sibley C.G. &amp; Hedges S.B. (2000) The Early History of Modern Birds Inferred from DNA Sequences of Nuclear and Mitochondrial Ribosomal Genes. Mol. Biol. Evol., 17 : 451-457</t>
         </is>
